--- a/rec/NRO-21_011_PLAN DE BOITE.xlsx
+++ b/rec/NRO-21_011_PLAN DE BOITE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes20\PycharmProjects\Trial\rec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes18\Dropbox\Mon PC (DESKTOP-0SFPPSH)\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FC3BEE-75CD-44B9-96EE-A834170D6547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9D7C55-1E1B-4A93-A390-9DD28F9067A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPE-21-011-079-0012" sheetId="19" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="81">
   <si>
     <t>RETOUR</t>
   </si>
@@ -570,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -658,20 +658,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -714,6 +700,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -725,12 +719,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3908376B-5D05-42EA-8101-3DBDFF3E647B}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,17 +1034,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -1070,10 +1058,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -1086,15 +1074,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -1107,13 +1095,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -1126,12 +1114,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -1144,12 +1132,12 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -1162,12 +1150,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -1180,12 +1168,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -1198,12 +1186,12 @@
       <c r="F13" s="25">
         <v>7</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -1216,12 +1204,12 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -1234,12 +1222,12 @@
       <c r="F15" s="27">
         <v>9</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -1252,14 +1240,14 @@
       <c r="F16" s="17">
         <v>1</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -1272,12 +1260,12 @@
       <c r="F17" s="20">
         <v>2</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -1290,12 +1278,12 @@
       <c r="F18" s="21">
         <v>3</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -1308,12 +1296,12 @@
       <c r="F19" s="22">
         <v>4</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -1326,12 +1314,12 @@
       <c r="F20" s="23">
         <v>5</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -1344,12 +1332,12 @@
       <c r="F21" s="13">
         <v>6</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -1362,12 +1350,12 @@
       <c r="F22" s="25">
         <v>7</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -1380,12 +1368,12 @@
       <c r="F23" s="26">
         <v>8</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -1398,12 +1386,12 @@
       <c r="F24" s="27">
         <v>9</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
@@ -1416,12 +1404,12 @@
       <c r="F25" s="28">
         <v>10</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -1434,12 +1422,12 @@
       <c r="F26" s="20">
         <v>11</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
@@ -1452,12 +1440,12 @@
       <c r="F27" s="29">
         <v>12</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
@@ -1470,12 +1458,12 @@
       <c r="F28" s="17">
         <v>13</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
@@ -1488,12 +1476,12 @@
       <c r="F29" s="20">
         <v>14</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
@@ -1506,12 +1494,12 @@
       <c r="F30" s="21">
         <v>15</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="17">
         <v>25</v>
       </c>
@@ -1524,12 +1512,12 @@
       <c r="F31" s="22">
         <v>16</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="20">
         <v>26</v>
       </c>
@@ -1542,12 +1530,12 @@
       <c r="F32" s="23">
         <v>17</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="21">
         <v>27</v>
       </c>
@@ -1560,12 +1548,12 @@
       <c r="F33" s="13">
         <v>18</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="22">
         <v>28</v>
       </c>
@@ -1578,12 +1566,12 @@
       <c r="F34" s="25">
         <v>19</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="23">
         <v>29</v>
       </c>
@@ -1596,12 +1584,12 @@
       <c r="F35" s="26">
         <v>20</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="13">
         <v>30</v>
       </c>
@@ -1614,12 +1602,12 @@
       <c r="F36" s="27">
         <v>21</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="25">
         <v>31</v>
       </c>
@@ -1628,8 +1616,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="26">
         <v>32</v>
       </c>
@@ -1638,8 +1626,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="27">
         <v>33</v>
       </c>
@@ -1648,8 +1636,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="28">
         <v>34</v>
       </c>
@@ -1658,8 +1646,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="20">
         <v>35</v>
       </c>
@@ -1668,8 +1656,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="54"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="29">
         <v>36</v>
       </c>
@@ -1678,8 +1666,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="54"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="17">
         <v>37</v>
       </c>
@@ -1688,8 +1676,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="20">
         <v>38</v>
       </c>
@@ -1698,8 +1686,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="54"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="48"/>
       <c r="C45" s="21">
         <v>39</v>
       </c>
@@ -1708,8 +1696,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="22">
         <v>40</v>
       </c>
@@ -1718,8 +1706,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="54"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
       <c r="C47" s="23">
         <v>41</v>
       </c>
@@ -1728,8 +1716,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="54"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="48"/>
       <c r="C48" s="13">
         <v>42</v>
       </c>
@@ -1738,8 +1726,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="48"/>
       <c r="C49" s="25">
         <v>43</v>
       </c>
@@ -1748,8 +1736,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="48"/>
       <c r="C50" s="26">
         <v>44</v>
       </c>
@@ -1762,14 +1750,14 @@
       <c r="F50" s="20">
         <v>26</v>
       </c>
-      <c r="G50" s="60" t="s">
+      <c r="G50" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="60"/>
+      <c r="H50" s="54"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="27">
         <v>45</v>
       </c>
@@ -1782,12 +1770,12 @@
       <c r="F51" s="21">
         <v>27</v>
       </c>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="48"/>
       <c r="C52" s="28">
         <v>46</v>
       </c>
@@ -1800,12 +1788,12 @@
       <c r="F52" s="22">
         <v>28</v>
       </c>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="54"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="48"/>
       <c r="C53" s="20">
         <v>47</v>
       </c>
@@ -1818,12 +1806,12 @@
       <c r="F53" s="23">
         <v>29</v>
       </c>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="54"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="48"/>
       <c r="C54" s="29">
         <v>48</v>
       </c>
@@ -1836,12 +1824,12 @@
       <c r="F54" s="13">
         <v>30</v>
       </c>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="54"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="48"/>
       <c r="C55" s="17">
         <v>49</v>
       </c>
@@ -1854,12 +1842,12 @@
       <c r="F55" s="25">
         <v>31</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="54"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="20">
         <v>50</v>
       </c>
@@ -1872,12 +1860,12 @@
       <c r="F56" s="26">
         <v>32</v>
       </c>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="54"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="48"/>
       <c r="C57" s="21">
         <v>51</v>
       </c>
@@ -1890,12 +1878,12 @@
       <c r="F57" s="27">
         <v>33</v>
       </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="54"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="48"/>
       <c r="C58" s="22">
         <v>52</v>
       </c>
@@ -1908,12 +1896,12 @@
       <c r="F58" s="28">
         <v>34</v>
       </c>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="54"/>
+      <c r="A59" s="47"/>
+      <c r="B59" s="48"/>
       <c r="C59" s="23">
         <v>53</v>
       </c>
@@ -1926,12 +1914,12 @@
       <c r="F59" s="20">
         <v>35</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="54"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
       <c r="C60" s="13">
         <v>54</v>
       </c>
@@ -1944,12 +1932,12 @@
       <c r="F60" s="29">
         <v>36</v>
       </c>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="54"/>
+      <c r="A61" s="47"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="25">
         <v>55</v>
       </c>
@@ -1962,14 +1950,14 @@
       <c r="F61" s="25">
         <v>19</v>
       </c>
-      <c r="G61" s="60" t="s">
+      <c r="G61" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="60"/>
+      <c r="H61" s="54"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="54"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="48"/>
       <c r="C62" s="26">
         <v>56</v>
       </c>
@@ -1982,12 +1970,12 @@
       <c r="F62" s="26">
         <v>20</v>
       </c>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="54"/>
+      <c r="A63" s="47"/>
+      <c r="B63" s="48"/>
       <c r="C63" s="27">
         <v>57</v>
       </c>
@@ -2000,12 +1988,12 @@
       <c r="F63" s="27">
         <v>21</v>
       </c>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="54"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="28">
         <v>58</v>
       </c>
@@ -2018,12 +2006,12 @@
       <c r="F64" s="28">
         <v>22</v>
       </c>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="54"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="20">
         <v>59</v>
       </c>
@@ -2036,12 +2024,12 @@
       <c r="F65" s="20">
         <v>23</v>
       </c>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="B66" s="54"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="29">
         <v>60</v>
       </c>
@@ -2054,8 +2042,8 @@
       <c r="F66" s="29">
         <v>24</v>
       </c>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E67" s="31" t="s">
@@ -2064,10 +2052,10 @@
       <c r="F67" s="28">
         <v>10</v>
       </c>
-      <c r="G67" s="51" t="s">
+      <c r="G67" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="52"/>
+      <c r="H67" s="46"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E68" s="31" t="s">
@@ -2076,8 +2064,8 @@
       <c r="F68" s="20">
         <v>11</v>
       </c>
-      <c r="G68" s="53"/>
-      <c r="H68" s="54"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="48"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E69" s="31" t="s">
@@ -2086,8 +2074,8 @@
       <c r="F69" s="29">
         <v>12</v>
       </c>
-      <c r="G69" s="53"/>
-      <c r="H69" s="54"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E70" s="31" t="s">
@@ -2096,8 +2084,8 @@
       <c r="F70" s="17">
         <v>13</v>
       </c>
-      <c r="G70" s="53"/>
-      <c r="H70" s="54"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="48"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E71" s="31" t="s">
@@ -2106,8 +2094,8 @@
       <c r="F71" s="20">
         <v>14</v>
       </c>
-      <c r="G71" s="53"/>
-      <c r="H71" s="54"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="48"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E72" s="31" t="s">
@@ -2116,8 +2104,8 @@
       <c r="F72" s="21">
         <v>15</v>
       </c>
-      <c r="G72" s="53"/>
-      <c r="H72" s="54"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="48"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E73" s="31" t="s">
@@ -2126,8 +2114,8 @@
       <c r="F73" s="22">
         <v>16</v>
       </c>
-      <c r="G73" s="53"/>
-      <c r="H73" s="54"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="48"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E74" s="31" t="s">
@@ -2136,8 +2124,8 @@
       <c r="F74" s="23">
         <v>17</v>
       </c>
-      <c r="G74" s="53"/>
-      <c r="H74" s="54"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="48"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E75" s="31" t="s">
@@ -2146,8 +2134,8 @@
       <c r="F75" s="13">
         <v>18</v>
       </c>
-      <c r="G75" s="58"/>
-      <c r="H75" s="59"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="53"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E76" s="31" t="s">
@@ -2156,10 +2144,10 @@
       <c r="F76" s="27">
         <v>21</v>
       </c>
-      <c r="G76" s="51" t="s">
+      <c r="G76" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="H76" s="52"/>
+      <c r="H76" s="46"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E77" s="31" t="s">
@@ -2168,8 +2156,8 @@
       <c r="F77" s="28">
         <v>22</v>
       </c>
-      <c r="G77" s="53"/>
-      <c r="H77" s="54"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="48"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E78" s="31" t="s">
@@ -2178,8 +2166,8 @@
       <c r="F78" s="20">
         <v>23</v>
       </c>
-      <c r="G78" s="53"/>
-      <c r="H78" s="54"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="48"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E79" s="31" t="s">
@@ -2188,8 +2176,8 @@
       <c r="F79" s="29">
         <v>24</v>
       </c>
-      <c r="G79" s="53"/>
-      <c r="H79" s="54"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="48"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E80" s="31" t="s">
@@ -2198,8 +2186,8 @@
       <c r="F80" s="17">
         <v>25</v>
       </c>
-      <c r="G80" s="53"/>
-      <c r="H80" s="54"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2257,16 +2245,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -2280,10 +2268,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -2296,14 +2284,14 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -2316,12 +2304,12 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -2334,12 +2322,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -2352,12 +2340,12 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -2370,12 +2358,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -2388,12 +2376,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -2406,12 +2394,12 @@
       <c r="F13" s="25">
         <v>7</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -2424,8 +2412,8 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2477,16 +2465,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -2500,10 +2488,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -2516,14 +2504,14 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -2536,12 +2524,12 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -2554,12 +2542,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -2572,12 +2560,12 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -2590,12 +2578,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -2608,12 +2596,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -2626,12 +2614,12 @@
       <c r="F13" s="25">
         <v>7</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -2644,8 +2632,8 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2697,16 +2685,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -2720,10 +2708,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -2736,14 +2724,14 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -2756,12 +2744,12 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -2774,12 +2762,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -2792,12 +2780,12 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -2810,12 +2798,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -2828,12 +2816,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -2846,12 +2834,12 @@
       <c r="F13" s="25">
         <v>7</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -2864,8 +2852,8 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2888,14 +2876,12 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="13"/>
-    <col min="2" max="2" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="13"/>
+    <col min="1" max="9" width="9.140625" style="13"/>
     <col min="10" max="10" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="13"/>
   </cols>
@@ -2916,20 +2902,23 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="J3" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="55"/>
-    </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -2943,10 +2932,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -2959,15 +2948,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -2980,14 +2969,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="48"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -3000,13 +2988,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -3019,15 +3007,15 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="52"/>
+      <c r="G10" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="46"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -3040,12 +3028,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -3058,12 +3046,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -3073,15 +3061,17 @@
       <c r="E13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="22">
-        <v>4</v>
-      </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="54"/>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -3091,57 +3081,69 @@
       <c r="E14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="23">
-        <v>5</v>
-      </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="54"/>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="49"/>
+      <c r="D15" s="18">
+        <v>9</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="21">
+        <v>3</v>
+      </c>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="49"/>
+      <c r="D16" s="39">
+        <v>10</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="22">
+        <v>4</v>
+      </c>
+      <c r="G16" s="47"/>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="49"/>
+      <c r="D17" s="39">
+        <v>11</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="23">
+        <v>5</v>
+      </c>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -3152,20 +3154,20 @@
       <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="69"/>
-      <c r="H19" s="70"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -3176,8 +3178,8 @@
       <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -3188,8 +3190,8 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -3200,8 +3202,8 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -3212,8 +3214,8 @@
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -3224,25 +3226,33 @@
       <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="44"/>
+      <c r="D25" s="18">
+        <v>12</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="22">
+        <v>4</v>
+      </c>
+      <c r="G25" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
       <c r="D26" s="39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>4</v>
@@ -3250,19 +3260,19 @@
       <c r="F26" s="13">
         <v>6</v>
       </c>
-      <c r="G26" s="51" t="s">
+      <c r="G26" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="H26" s="52"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
-      <c r="D27" s="45">
-        <v>10</v>
+      <c r="D27" s="39">
+        <v>14</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>4</v>
@@ -3270,17 +3280,17 @@
       <c r="F27" s="25">
         <v>7</v>
       </c>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
-      <c r="D28" s="45">
-        <v>11</v>
+      <c r="D28" s="39">
+        <v>15</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>4</v>
@@ -3288,19 +3298,19 @@
       <c r="F28" s="22">
         <v>4</v>
       </c>
-      <c r="G28" s="53" t="s">
+      <c r="G28" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
-      <c r="D29" s="45">
-        <v>12</v>
+      <c r="D29" s="39">
+        <v>16</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>4</v>
@@ -3308,17 +3318,17 @@
       <c r="F29" s="23">
         <v>5</v>
       </c>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
-      <c r="D30" s="45">
-        <v>13</v>
+      <c r="D30" s="39">
+        <v>17</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>4</v>
@@ -3326,24 +3336,27 @@
       <c r="F30" s="13">
         <v>6</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="G7:H9"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A7:B30"/>
     <mergeCell ref="G28:H30"/>
+    <mergeCell ref="G10:H12"/>
     <mergeCell ref="G26:H27"/>
-    <mergeCell ref="G10:H14"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G13:H17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{778B2DBF-2B96-4C07-839F-70684CDADA16}"/>
     <hyperlink ref="I1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{69367D17-94AF-411F-AB71-2D8D10953FB3}"/>
+    <hyperlink ref="J2" location="'BPE-21-011-077-0002'!A1" display="BPE-21-011-077-0002" xr:uid="{9E3A81D7-60ED-4B81-A7D4-26FA341512D6}"/>
     <hyperlink ref="B1" location="'BPE-21-011-079-0012'!A1" display="BPE-21-011-079-0012" xr:uid="{74412989-06BA-426D-B3A6-FE839414BE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3355,7 +3368,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3378,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
@@ -3388,16 +3401,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="55"/>
+      <c r="A3" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -3411,10 +3424,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -3427,15 +3440,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -3448,13 +3461,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -3467,13 +3480,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -3486,8 +3499,8 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="15"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3594,10 +3607,10 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3608,10 +3621,10 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3652,10 +3665,10 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -3668,16 +3681,16 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="15"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -3690,14 +3703,14 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="15"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -3710,14 +3723,14 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="15"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -3730,8 +3743,8 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="15"/>
       <c r="J10" s="13"/>
     </row>
@@ -3784,19 +3797,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
       <c r="J3" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -3810,10 +3823,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -3826,15 +3839,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -3847,13 +3860,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -3866,13 +3879,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -3885,15 +3898,15 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -3906,12 +3919,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -3924,12 +3937,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -3942,14 +3955,14 @@
       <c r="F13" s="17">
         <v>1</v>
       </c>
-      <c r="G13" s="60" t="s">
+      <c r="G13" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="60"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -3962,12 +3975,12 @@
       <c r="F14" s="20">
         <v>2</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -3980,12 +3993,12 @@
       <c r="F15" s="21">
         <v>3</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -3998,8 +4011,8 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -4012,8 +4025,8 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -4026,8 +4039,8 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -4040,8 +4053,8 @@
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -4054,8 +4067,8 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -4068,8 +4081,8 @@
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -4082,8 +4095,8 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -4096,8 +4109,8 @@
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -4110,8 +4123,8 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
@@ -4124,8 +4137,8 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -4138,8 +4151,8 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
@@ -4149,8 +4162,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
@@ -4163,14 +4176,14 @@
       <c r="F28" s="22">
         <v>4</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="60"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
@@ -4183,14 +4196,14 @@
       <c r="F29" s="22">
         <v>4</v>
       </c>
-      <c r="G29" s="60" t="s">
+      <c r="G29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="60"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
@@ -4203,10 +4216,10 @@
       <c r="F30" s="13">
         <v>6</v>
       </c>
-      <c r="G30" s="60" t="s">
+      <c r="G30" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="60"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="31" t="s">
@@ -4215,10 +4228,10 @@
       <c r="F31" s="22">
         <v>4</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="H31" s="60"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="31" t="s">
@@ -4227,8 +4240,8 @@
       <c r="F32" s="23">
         <v>5</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="13"/>
@@ -4288,16 +4301,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -4311,10 +4324,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -4327,15 +4340,15 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -4348,13 +4361,13 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
@@ -4367,13 +4380,13 @@
       <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="10">
         <v>4</v>
       </c>
@@ -4386,8 +4399,8 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4509,16 +4522,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -4532,10 +4545,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -4548,15 +4561,15 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -4569,13 +4582,13 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
@@ -4588,13 +4601,13 @@
       <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="10">
         <v>4</v>
       </c>
@@ -4607,8 +4620,8 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4731,16 +4744,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -4754,10 +4767,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -4770,15 +4783,15 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -4791,13 +4804,13 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
@@ -4810,13 +4823,13 @@
       <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="10">
         <v>4</v>
       </c>
@@ -4829,8 +4842,8 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4929,8 +4942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF060BA-0AEA-482B-AAB1-773FCDBBA711}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4960,19 +4973,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
       <c r="J3" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -4986,10 +4999,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -5002,15 +5015,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -5023,13 +5036,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -5042,12 +5055,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -5060,14 +5073,14 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -5080,12 +5093,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -5098,12 +5111,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -5116,12 +5129,12 @@
       <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -5134,12 +5147,12 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -5152,12 +5165,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -5170,12 +5183,12 @@
       <c r="F16" s="25">
         <v>7</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -5188,12 +5201,12 @@
       <c r="F17" s="26">
         <v>8</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -5206,12 +5219,12 @@
       <c r="F18" s="27">
         <v>9</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -5224,14 +5237,14 @@
       <c r="F19" s="17">
         <v>1</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="60"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
+      <c r="H19" s="54"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -5244,12 +5257,12 @@
       <c r="F20" s="20">
         <v>2</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -5262,12 +5275,12 @@
       <c r="F21" s="21">
         <v>3</v>
       </c>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -5280,12 +5293,12 @@
       <c r="F22" s="22">
         <v>4</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -5298,12 +5311,12 @@
       <c r="F23" s="23">
         <v>5</v>
       </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -5316,12 +5329,12 @@
       <c r="F24" s="13">
         <v>6</v>
       </c>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
@@ -5334,12 +5347,12 @@
       <c r="F25" s="25">
         <v>7</v>
       </c>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -5352,12 +5365,12 @@
       <c r="F26" s="26">
         <v>8</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
@@ -5370,13 +5383,12 @@
       <c r="F27" s="27">
         <v>9</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="J27" s="50"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
@@ -5388,9 +5400,9 @@
       <c r="G28" s="31"/>
       <c r="H28" s="31"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
@@ -5402,9 +5414,9 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
@@ -5416,9 +5428,9 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="47"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="17">
         <v>25</v>
       </c>
@@ -5429,9 +5441,9 @@
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="47"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="20">
         <v>26</v>
       </c>
@@ -5444,14 +5456,14 @@
       <c r="F32" s="25">
         <v>19</v>
       </c>
-      <c r="G32" s="60" t="s">
+      <c r="G32" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="60"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="21">
         <v>27</v>
       </c>
@@ -5464,12 +5476,12 @@
       <c r="F33" s="26">
         <v>20</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="22">
         <v>28</v>
       </c>
@@ -5482,12 +5494,12 @@
       <c r="F34" s="27">
         <v>21</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="47"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="23">
         <v>29</v>
       </c>
@@ -5500,12 +5512,12 @@
       <c r="F35" s="28">
         <v>22</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="13">
         <v>30</v>
       </c>
@@ -5518,12 +5530,12 @@
       <c r="F36" s="20">
         <v>23</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="25">
         <v>31</v>
       </c>
@@ -5536,12 +5548,12 @@
       <c r="F37" s="29">
         <v>24</v>
       </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="47"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="26">
         <v>32</v>
       </c>
@@ -5554,14 +5566,14 @@
       <c r="F38" s="27">
         <v>21</v>
       </c>
-      <c r="G38" s="60" t="s">
+      <c r="G38" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="H38" s="60"/>
+      <c r="H38" s="54"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="27">
         <v>33</v>
       </c>
@@ -5574,12 +5586,12 @@
       <c r="F39" s="28">
         <v>22</v>
       </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="28">
         <v>34</v>
       </c>
@@ -5592,12 +5604,12 @@
       <c r="F40" s="20">
         <v>23</v>
       </c>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="20">
         <v>35</v>
       </c>
@@ -5610,12 +5622,12 @@
       <c r="F41" s="29">
         <v>24</v>
       </c>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="59"/>
+      <c r="A42" s="52"/>
+      <c r="B42" s="53"/>
       <c r="C42" s="29">
         <v>36</v>
       </c>
@@ -5628,10 +5640,10 @@
       <c r="F42" s="22">
         <v>4</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G42" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="H42" s="61"/>
+      <c r="H42" s="55"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
@@ -5642,10 +5654,10 @@
       <c r="F43" s="28">
         <v>10</v>
       </c>
-      <c r="G43" s="51" t="s">
+      <c r="G43" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="52"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
@@ -5656,8 +5668,8 @@
       <c r="F44" s="20">
         <v>11</v>
       </c>
-      <c r="G44" s="53"/>
-      <c r="H44" s="54"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
@@ -5668,8 +5680,8 @@
       <c r="F45" s="29">
         <v>12</v>
       </c>
-      <c r="G45" s="53"/>
-      <c r="H45" s="54"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="48"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -5680,8 +5692,8 @@
       <c r="F46" s="17">
         <v>13</v>
       </c>
-      <c r="G46" s="53"/>
-      <c r="H46" s="54"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="48"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
@@ -5692,8 +5704,8 @@
       <c r="F47" s="20">
         <v>14</v>
       </c>
-      <c r="G47" s="53"/>
-      <c r="H47" s="54"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
@@ -5704,8 +5716,8 @@
       <c r="F48" s="21">
         <v>15</v>
       </c>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -5716,8 +5728,8 @@
       <c r="F49" s="22">
         <v>16</v>
       </c>
-      <c r="G49" s="53"/>
-      <c r="H49" s="54"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -5728,8 +5740,8 @@
       <c r="F50" s="23">
         <v>17</v>
       </c>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="34"/>
@@ -5740,8 +5752,8 @@
       <c r="F51" s="13">
         <v>18</v>
       </c>
-      <c r="G51" s="53"/>
-      <c r="H51" s="54"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
@@ -5752,8 +5764,8 @@
       <c r="F52" s="25">
         <v>19</v>
       </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
@@ -5764,8 +5776,8 @@
       <c r="F53" s="26">
         <v>20</v>
       </c>
-      <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="53"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
@@ -5776,10 +5788,10 @@
       <c r="F54" s="28">
         <v>10</v>
       </c>
-      <c r="G54" s="60" t="s">
+      <c r="G54" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="H54" s="60"/>
+      <c r="H54" s="54"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E55" s="31" t="s">
@@ -5788,8 +5800,8 @@
       <c r="F55" s="20">
         <v>11</v>
       </c>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E56" s="31" t="s">
@@ -5798,8 +5810,8 @@
       <c r="F56" s="29">
         <v>12</v>
       </c>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E57" s="31" t="s">
@@ -5808,8 +5820,8 @@
       <c r="F57" s="17">
         <v>13</v>
       </c>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E58" s="31" t="s">
@@ -5818,8 +5830,8 @@
       <c r="F58" s="20">
         <v>14</v>
       </c>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E59" s="31" t="s">
@@ -5828,8 +5840,8 @@
       <c r="F59" s="21">
         <v>15</v>
       </c>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E60" s="31" t="s">
@@ -5838,8 +5850,8 @@
       <c r="F60" s="22">
         <v>16</v>
       </c>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E61" s="31" t="s">
@@ -5848,8 +5860,8 @@
       <c r="F61" s="23">
         <v>17</v>
       </c>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E62" s="31" t="s">
@@ -5858,22 +5870,22 @@
       <c r="F62" s="13">
         <v>18</v>
       </c>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B42"/>
+    <mergeCell ref="G19:H27"/>
+    <mergeCell ref="G32:H37"/>
     <mergeCell ref="G43:H53"/>
     <mergeCell ref="G38:H41"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G54:H62"/>
     <mergeCell ref="G7:H9"/>
     <mergeCell ref="G10:H18"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A7:B42"/>
-    <mergeCell ref="G19:H27"/>
-    <mergeCell ref="G32:H37"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -5918,10 +5930,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5932,10 +5944,10 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5964,10 +5976,10 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -5980,16 +5992,16 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -6002,14 +6014,14 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
@@ -6022,14 +6034,14 @@
       <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="10">
         <v>4</v>
       </c>
@@ -6042,8 +6054,8 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
     </row>
@@ -6221,16 +6233,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -6244,10 +6256,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -6260,15 +6272,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -6281,13 +6293,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -6300,12 +6312,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -6318,12 +6330,12 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -6336,12 +6348,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -6354,12 +6366,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -6372,12 +6384,12 @@
       <c r="F13" s="25">
         <v>7</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -6390,12 +6402,12 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -6408,12 +6420,12 @@
       <c r="F15" s="27">
         <v>9</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -6423,8 +6435,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -6434,8 +6446,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -6445,8 +6457,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -6455,8 +6467,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -6465,8 +6477,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -6475,8 +6487,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -6485,8 +6497,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -6495,8 +6507,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -6505,8 +6517,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
@@ -6519,14 +6531,14 @@
       <c r="F25" s="25">
         <v>19</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="60"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -6539,12 +6551,12 @@
       <c r="F26" s="26">
         <v>20</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
@@ -6557,12 +6569,12 @@
       <c r="F27" s="27">
         <v>21</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
@@ -6575,12 +6587,12 @@
       <c r="F28" s="28">
         <v>22</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
@@ -6593,12 +6605,12 @@
       <c r="F29" s="20">
         <v>23</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
@@ -6611,8 +6623,8 @@
       <c r="F30" s="29">
         <v>24</v>
       </c>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="31" t="s">
@@ -6621,8 +6633,8 @@
       <c r="F31" s="28">
         <v>10</v>
       </c>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="31" t="s">
@@ -6631,8 +6643,8 @@
       <c r="F32" s="20">
         <v>11</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="31" t="s">
@@ -6641,8 +6653,8 @@
       <c r="F33" s="29">
         <v>12</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="31" t="s">
@@ -6651,8 +6663,8 @@
       <c r="F34" s="17">
         <v>13</v>
       </c>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="31" t="s">
@@ -6661,8 +6673,8 @@
       <c r="F35" s="20">
         <v>14</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="31" t="s">
@@ -6671,8 +6683,8 @@
       <c r="F36" s="21">
         <v>15</v>
       </c>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="31" t="s">
@@ -6681,8 +6693,8 @@
       <c r="F37" s="22">
         <v>16</v>
       </c>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="31" t="s">
@@ -6691,8 +6703,8 @@
       <c r="F38" s="23">
         <v>17</v>
       </c>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="31" t="s">
@@ -6701,8 +6713,8 @@
       <c r="F39" s="13">
         <v>18</v>
       </c>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6757,16 +6769,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -6780,10 +6792,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="60"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -6796,15 +6808,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -6817,13 +6829,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -6836,12 +6848,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -6854,14 +6866,14 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -6874,12 +6886,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -6892,12 +6904,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -6910,12 +6922,12 @@
       <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -6928,12 +6940,12 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -6946,12 +6958,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -6961,8 +6973,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -6972,8 +6984,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -6983,8 +6995,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -6995,8 +7007,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -7007,8 +7019,8 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -7017,8 +7029,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -7027,8 +7039,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -7037,8 +7049,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -7047,8 +7059,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
@@ -7061,14 +7073,14 @@
       <c r="F25" s="26">
         <v>8</v>
       </c>
-      <c r="G25" s="60" t="s">
+      <c r="G25" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H25" s="60"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -7081,12 +7093,12 @@
       <c r="F26" s="27">
         <v>9</v>
       </c>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
@@ -7099,12 +7111,12 @@
       <c r="F27" s="28">
         <v>10</v>
       </c>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
@@ -7117,12 +7129,12 @@
       <c r="F28" s="20">
         <v>11</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
@@ -7135,12 +7147,12 @@
       <c r="F29" s="29">
         <v>12</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
@@ -7153,10 +7165,10 @@
       <c r="F30" s="22">
         <v>4</v>
       </c>
-      <c r="G30" s="61" t="s">
+      <c r="G30" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="61"/>
+      <c r="H30" s="55"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="31" t="s">
@@ -7165,10 +7177,10 @@
       <c r="F31" s="25">
         <v>7</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G31" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="63"/>
+      <c r="H31" s="57"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G32" s="34"/>
@@ -7232,16 +7244,16 @@
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -7255,10 +7267,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -7271,15 +7283,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -7292,13 +7304,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -7311,13 +7323,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -7330,13 +7342,13 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -7349,12 +7361,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -7367,12 +7379,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -7384,8 +7396,8 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -7398,14 +7410,14 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="60"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -7418,12 +7430,12 @@
       <c r="F15" s="27">
         <v>9</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -7436,12 +7448,12 @@
       <c r="F16" s="28">
         <v>10</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -7454,12 +7466,12 @@
       <c r="F17" s="20">
         <v>11</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -7472,8 +7484,8 @@
       <c r="F18" s="29">
         <v>12</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7483,8 +7495,8 @@
       <c r="F19" s="25">
         <v>7</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
@@ -7542,16 +7554,16 @@
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -7565,10 +7577,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -7581,15 +7593,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -7602,13 +7614,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -7621,13 +7633,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -7640,13 +7652,13 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -7659,12 +7671,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -7677,12 +7689,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -7694,8 +7706,8 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -7708,14 +7720,14 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="60"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -7728,12 +7740,12 @@
       <c r="F15" s="27">
         <v>9</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -7746,12 +7758,12 @@
       <c r="F16" s="28">
         <v>10</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -7764,12 +7776,12 @@
       <c r="F17" s="20">
         <v>11</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -7782,8 +7794,8 @@
       <c r="F18" s="29">
         <v>12</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7793,8 +7805,8 @@
       <c r="F19" s="25">
         <v>7</v>
       </c>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
@@ -7855,16 +7867,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -7878,10 +7890,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -7894,15 +7906,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="60"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -7915,13 +7927,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -7934,13 +7946,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -7953,15 +7965,15 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="60"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -7974,12 +7986,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -7992,12 +8004,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -8007,8 +8019,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -8021,14 +8033,14 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="60"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -8041,12 +8053,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -8059,14 +8071,14 @@
       <c r="F16" s="22">
         <v>4</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="60"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -8079,12 +8091,12 @@
       <c r="F17" s="23">
         <v>5</v>
       </c>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -8097,8 +8109,8 @@
       <c r="F18" s="13">
         <v>6</v>
       </c>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -8108,10 +8120,10 @@
       <c r="F19" s="22">
         <v>4</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="61"/>
+      <c r="H19" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8167,16 +8179,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -8190,10 +8202,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -8206,15 +8218,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -8227,13 +8239,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -8246,13 +8258,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -8265,15 +8277,15 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="52"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -8286,12 +8298,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -8304,12 +8316,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="53"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -8322,12 +8334,12 @@
       <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -8340,12 +8352,12 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -8358,12 +8370,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -8374,8 +8386,8 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -8386,8 +8398,8 @@
       <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -8398,20 +8410,20 @@
       <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -8420,8 +8432,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -8430,8 +8442,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -8440,8 +8452,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -8450,8 +8462,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -8460,8 +8472,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
@@ -8470,8 +8482,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -8480,8 +8492,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
@@ -8494,14 +8506,14 @@
       <c r="F27" s="28">
         <v>10</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="60"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
@@ -8514,12 +8526,12 @@
       <c r="F28" s="20">
         <v>11</v>
       </c>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
@@ -8532,12 +8544,12 @@
       <c r="F29" s="29">
         <v>12</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
@@ -8562,10 +8574,10 @@
       <c r="F31" s="25">
         <v>7</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="60"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="31" t="s">
@@ -8574,8 +8586,8 @@
       <c r="F32" s="26">
         <v>8</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="31" t="s">
@@ -8584,8 +8596,8 @@
       <c r="F33" s="27">
         <v>9</v>
       </c>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8611,7 +8623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E6135A-2194-4F10-83EB-E84B25FA2DB4}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8642,16 +8654,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="55"/>
+      <c r="B3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="51"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -8665,10 +8677,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="52"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -8681,15 +8693,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -8702,13 +8714,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -8721,13 +8733,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -8740,15 +8752,15 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -8761,12 +8773,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -8779,12 +8791,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -8797,12 +8809,12 @@
       <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -8815,12 +8827,12 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -8833,12 +8845,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -8851,12 +8863,12 @@
       <c r="F16" s="25">
         <v>7</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -8869,12 +8881,12 @@
       <c r="F17" s="26">
         <v>8</v>
       </c>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -8887,10 +8899,10 @@
       <c r="F18" s="22">
         <v>4</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="47"/>
+      <c r="H18" s="62"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>

--- a/rec/NRO-21_011_PLAN DE BOITE.xlsx
+++ b/rec/NRO-21_011_PLAN DE BOITE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\etudes18\Dropbox\Mon PC (DESKTOP-0SFPPSH)\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bureauetudes15\Desktop\fibre21\21-011\21-011-transport\REC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9D7C55-1E1B-4A93-A390-9DD28F9067A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B05785-8161-43FE-8065-8E4419EBB8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="934" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="0" windowWidth="21600" windowHeight="11385" tabRatio="934" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BPE-21-011-079-0012" sheetId="19" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="83">
   <si>
     <t>RETOUR</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>BPE-21-011-073-0007</t>
-  </si>
-  <si>
-    <t>OFDC-B8-S36-2-NN-2</t>
   </si>
   <si>
     <t>BPE-21-011-074-0006</t>
@@ -287,6 +284,15 @@
   </si>
   <si>
     <t>CBM-21-011-073-0073</t>
+  </si>
+  <si>
+    <t>FIST-GCO2-BD8-GV</t>
+  </si>
+  <si>
+    <t>3M PBO T1 (FDP Drop)</t>
+  </si>
+  <si>
+    <t>FIST-GCO2-BE16-GV</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -565,12 +571,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -658,6 +677,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -670,14 +716,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -686,10 +726,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,26 +746,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1001,10 +1037,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3908376B-5D05-42EA-8101-3DBDFF3E647B}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,21 +1069,21 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
       <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -1058,10 +1097,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="46"/>
+      <c r="A7" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="55"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -1074,15 +1113,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -1095,13 +1134,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -1114,12 +1153,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -1132,12 +1171,12 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -1150,12 +1189,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -1168,12 +1207,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -1183,15 +1222,17 @@
       <c r="E13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="25">
-        <v>7</v>
-      </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -1201,15 +1242,15 @@
       <c r="E14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="26">
-        <v>8</v>
-      </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="F14" s="20">
+        <v>2</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -1219,15 +1260,15 @@
       <c r="E15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="27">
-        <v>9</v>
-      </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="F15" s="21">
+        <v>3</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -1237,17 +1278,15 @@
       <c r="E16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="17">
-        <v>1</v>
-      </c>
-      <c r="G16" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="H16" s="54"/>
+      <c r="F16" s="22">
+        <v>4</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -1257,15 +1296,15 @@
       <c r="E17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="20">
-        <v>2</v>
-      </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="F17" s="23">
+        <v>5</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -1275,15 +1314,15 @@
       <c r="E18" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="21">
-        <v>3</v>
-      </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
+      <c r="F18" s="13">
+        <v>6</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -1293,15 +1332,15 @@
       <c r="E19" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="22">
-        <v>4</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
+      <c r="F19" s="25">
+        <v>7</v>
+      </c>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -1311,15 +1350,15 @@
       <c r="E20" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="23">
-        <v>5</v>
-      </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
+      <c r="F20" s="26">
+        <v>8</v>
+      </c>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -1329,15 +1368,15 @@
       <c r="E21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="13">
-        <v>6</v>
-      </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
+      <c r="F21" s="27">
+        <v>9</v>
+      </c>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -1347,15 +1386,15 @@
       <c r="E22" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="25">
-        <v>7</v>
-      </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
+      <c r="F22" s="28">
+        <v>10</v>
+      </c>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -1365,15 +1404,15 @@
       <c r="E23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="26">
-        <v>8</v>
-      </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="F23" s="20">
+        <v>11</v>
+      </c>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -1383,15 +1422,15 @@
       <c r="E24" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="27">
-        <v>9</v>
-      </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
+      <c r="F24" s="29">
+        <v>12</v>
+      </c>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
@@ -1401,15 +1440,15 @@
       <c r="E25" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="28">
-        <v>10</v>
-      </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+      <c r="F25" s="17">
+        <v>13</v>
+      </c>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -1420,14 +1459,14 @@
         <v>4</v>
       </c>
       <c r="F26" s="20">
-        <v>11</v>
-      </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+        <v>14</v>
+      </c>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
@@ -1437,15 +1476,15 @@
       <c r="E27" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="29">
-        <v>12</v>
-      </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="F27" s="21">
+        <v>15</v>
+      </c>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
@@ -1455,15 +1494,15 @@
       <c r="E28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="17">
-        <v>13</v>
-      </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="F28" s="22">
+        <v>16</v>
+      </c>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
@@ -1473,15 +1512,15 @@
       <c r="E29" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="20">
-        <v>14</v>
-      </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
+      <c r="F29" s="23">
+        <v>17</v>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
@@ -1491,15 +1530,15 @@
       <c r="E30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="21">
-        <v>15</v>
-      </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
+      <c r="F30" s="13">
+        <v>18</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="17">
         <v>25</v>
       </c>
@@ -1509,15 +1548,15 @@
       <c r="E31" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="22">
-        <v>16</v>
-      </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
+      <c r="F31" s="25">
+        <v>19</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="20">
         <v>26</v>
       </c>
@@ -1527,15 +1566,15 @@
       <c r="E32" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="23">
-        <v>17</v>
-      </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
+      <c r="F32" s="26">
+        <v>20</v>
+      </c>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="21">
         <v>27</v>
       </c>
@@ -1545,79 +1584,64 @@
       <c r="E33" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="13">
-        <v>18</v>
-      </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="F33" s="27">
+        <v>21</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="22">
         <v>28</v>
       </c>
-      <c r="D34" s="37">
-        <v>28</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="25">
-        <v>19</v>
-      </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
+      <c r="E34" s="31" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="23">
         <v>29</v>
       </c>
-      <c r="D35" s="37">
-        <v>29</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="26">
-        <v>20</v>
-      </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
+      <c r="E35" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="13">
         <v>30</v>
       </c>
-      <c r="D36" s="37">
-        <v>30</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="27">
-        <v>21</v>
-      </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
+      <c r="E36" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="42"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="25">
         <v>31</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>10</v>
       </c>
+      <c r="F37" s="42"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="26">
         <v>32</v>
       </c>
@@ -1626,8 +1650,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="27">
         <v>33</v>
       </c>
@@ -1636,8 +1660,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="28">
         <v>34</v>
       </c>
@@ -1646,8 +1670,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="20">
         <v>35</v>
       </c>
@@ -1656,8 +1680,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="29">
         <v>36</v>
       </c>
@@ -1666,8 +1690,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="17">
         <v>37</v>
       </c>
@@ -1676,8 +1700,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="20">
         <v>38</v>
       </c>
@@ -1686,8 +1710,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="21">
         <v>39</v>
       </c>
@@ -1696,8 +1720,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="22">
         <v>40</v>
       </c>
@@ -1706,8 +1730,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="23">
         <v>41</v>
       </c>
@@ -1716,253 +1740,267 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="13">
         <v>42</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>10</v>
-      </c>
+      <c r="D48" s="48">
+        <v>28</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="20">
+        <v>23</v>
+      </c>
+      <c r="G48" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="25">
         <v>43</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>10</v>
-      </c>
+      <c r="D49" s="49">
+        <v>29</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="29">
+        <v>24</v>
+      </c>
+      <c r="G49" s="50"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="48"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="26">
         <v>44</v>
       </c>
-      <c r="D50" s="35">
-        <v>31</v>
+      <c r="D50" s="49">
+        <v>30</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="20">
-        <v>26</v>
-      </c>
-      <c r="G50" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" s="54"/>
+      <c r="F50" s="17">
+        <v>25</v>
+      </c>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="27">
         <v>45</v>
       </c>
-      <c r="D51" s="37">
-        <v>32</v>
+      <c r="D51" s="49">
+        <v>31</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="21">
-        <v>27</v>
-      </c>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
+      <c r="F51" s="20">
+        <v>26</v>
+      </c>
+      <c r="G51" s="50"/>
+      <c r="H51" s="50"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
-      <c r="B52" s="48"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="28">
         <v>46</v>
       </c>
-      <c r="D52" s="37">
-        <v>33</v>
+      <c r="D52" s="49">
+        <v>32</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="22">
-        <v>28</v>
-      </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
+      <c r="F52" s="21">
+        <v>27</v>
+      </c>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
-      <c r="B53" s="48"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="20">
         <v>47</v>
       </c>
-      <c r="D53" s="37">
-        <v>34</v>
+      <c r="D53" s="49">
+        <v>33</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="23">
-        <v>29</v>
-      </c>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
+      <c r="F53" s="22">
+        <v>28</v>
+      </c>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
-      <c r="B54" s="48"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="29">
         <v>48</v>
       </c>
-      <c r="D54" s="37">
-        <v>35</v>
+      <c r="D54" s="49">
+        <v>34</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="13">
-        <v>30</v>
-      </c>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
+      <c r="F54" s="23">
+        <v>29</v>
+      </c>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
-      <c r="B55" s="48"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="17">
         <v>49</v>
       </c>
-      <c r="D55" s="37">
-        <v>36</v>
+      <c r="D55" s="49">
+        <v>35</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="25">
-        <v>31</v>
-      </c>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
+      <c r="F55" s="13">
+        <v>30</v>
+      </c>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
-      <c r="B56" s="48"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="20">
         <v>50</v>
       </c>
-      <c r="D56" s="37">
-        <v>37</v>
+      <c r="D56" s="49">
+        <v>36</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="26">
-        <v>32</v>
-      </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
+      <c r="F56" s="25">
+        <v>31</v>
+      </c>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
-      <c r="B57" s="48"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="21">
         <v>51</v>
       </c>
-      <c r="D57" s="37">
-        <v>38</v>
+      <c r="D57" s="49">
+        <v>37</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="27">
-        <v>33</v>
-      </c>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
+      <c r="F57" s="26">
+        <v>32</v>
+      </c>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
-      <c r="B58" s="48"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="22">
         <v>52</v>
       </c>
-      <c r="D58" s="37">
-        <v>39</v>
+      <c r="D58" s="49">
+        <v>38</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="28">
-        <v>34</v>
-      </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
+      <c r="F58" s="27">
+        <v>33</v>
+      </c>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
-      <c r="B59" s="48"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="23">
         <v>53</v>
       </c>
-      <c r="D59" s="37">
-        <v>40</v>
+      <c r="D59" s="49">
+        <v>39</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="20">
-        <v>35</v>
-      </c>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
+      <c r="F59" s="28">
+        <v>34</v>
+      </c>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
-      <c r="B60" s="48"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="13">
         <v>54</v>
       </c>
-      <c r="D60" s="37">
-        <v>41</v>
+      <c r="D60" s="49">
+        <v>40</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="29">
-        <v>36</v>
-      </c>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
+      <c r="F60" s="20">
+        <v>35</v>
+      </c>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
-      <c r="B61" s="48"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="25">
         <v>55</v>
       </c>
-      <c r="D61" s="37">
-        <v>42</v>
+      <c r="D61" s="49">
+        <v>41</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="25">
-        <v>19</v>
-      </c>
-      <c r="G61" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="54"/>
+      <c r="F61" s="29">
+        <v>36</v>
+      </c>
+      <c r="G61" s="50"/>
+      <c r="H61" s="50"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="26">
         <v>56</v>
       </c>
-      <c r="D62" s="37">
-        <v>43</v>
+      <c r="D62" s="49">
+        <v>42</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>4</v>
@@ -1970,17 +2008,19 @@
       <c r="F62" s="26">
         <v>20</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
+      <c r="G62" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="H62" s="55"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="27">
         <v>57</v>
       </c>
-      <c r="D63" s="37">
-        <v>44</v>
+      <c r="D63" s="49">
+        <v>43</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>4</v>
@@ -1988,17 +2028,17 @@
       <c r="F63" s="27">
         <v>21</v>
       </c>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="57"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="28">
         <v>58</v>
       </c>
-      <c r="D64" s="37">
-        <v>45</v>
+      <c r="D64" s="49">
+        <v>44</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>4</v>
@@ -2006,17 +2046,17 @@
       <c r="F64" s="28">
         <v>22</v>
       </c>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="57"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="20">
         <v>59</v>
       </c>
-      <c r="D65" s="37">
-        <v>46</v>
+      <c r="D65" s="49">
+        <v>45</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>4</v>
@@ -2024,17 +2064,17 @@
       <c r="F65" s="20">
         <v>23</v>
       </c>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="57"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="29">
         <v>60</v>
       </c>
-      <c r="D66" s="37">
-        <v>47</v>
+      <c r="D66" s="49">
+        <v>46</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>4</v>
@@ -2042,164 +2082,164 @@
       <c r="F66" s="29">
         <v>24</v>
       </c>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="60"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E67" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="28">
-        <v>10</v>
-      </c>
-      <c r="G67" s="45" t="s">
+      <c r="F67" s="25">
+        <v>7</v>
+      </c>
+      <c r="G67" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="46"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E68" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="20">
-        <v>11</v>
-      </c>
-      <c r="G68" s="47"/>
-      <c r="H68" s="48"/>
+      <c r="F68" s="26">
+        <v>8</v>
+      </c>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E69" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="29">
-        <v>12</v>
-      </c>
-      <c r="G69" s="47"/>
-      <c r="H69" s="48"/>
+      <c r="F69" s="27">
+        <v>9</v>
+      </c>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E70" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="17">
-        <v>13</v>
-      </c>
-      <c r="G70" s="47"/>
-      <c r="H70" s="48"/>
+      <c r="F70" s="25">
+        <v>19</v>
+      </c>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E71" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="20">
-        <v>14</v>
-      </c>
-      <c r="G71" s="47"/>
-      <c r="H71" s="48"/>
+      <c r="F71" s="28">
+        <v>10</v>
+      </c>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E72" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="21">
-        <v>15</v>
-      </c>
-      <c r="G72" s="47"/>
-      <c r="H72" s="48"/>
+      <c r="F72" s="20">
+        <v>11</v>
+      </c>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E73" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="22">
-        <v>16</v>
-      </c>
-      <c r="G73" s="47"/>
-      <c r="H73" s="48"/>
+      <c r="F73" s="29">
+        <v>12</v>
+      </c>
+      <c r="G73" s="63"/>
+      <c r="H73" s="63"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E74" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="23">
-        <v>17</v>
-      </c>
-      <c r="G74" s="47"/>
-      <c r="H74" s="48"/>
+      <c r="F74" s="17">
+        <v>13</v>
+      </c>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E75" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="13">
-        <v>18</v>
-      </c>
-      <c r="G75" s="52"/>
-      <c r="H75" s="53"/>
+      <c r="F75" s="20">
+        <v>14</v>
+      </c>
+      <c r="G75" s="63"/>
+      <c r="H75" s="63"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E76" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="27">
-        <v>21</v>
-      </c>
-      <c r="G76" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="H76" s="46"/>
+      <c r="F76" s="21">
+        <v>15</v>
+      </c>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E77" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="28">
-        <v>22</v>
-      </c>
-      <c r="G77" s="47"/>
-      <c r="H77" s="48"/>
+      <c r="F77" s="22">
+        <v>16</v>
+      </c>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E78" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="20">
-        <v>23</v>
-      </c>
-      <c r="G78" s="47"/>
-      <c r="H78" s="48"/>
+      <c r="F78" s="23">
+        <v>17</v>
+      </c>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E79" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="29">
-        <v>24</v>
-      </c>
-      <c r="G79" s="47"/>
-      <c r="H79" s="48"/>
+      <c r="F79" s="13">
+        <v>18</v>
+      </c>
+      <c r="G79" s="64"/>
+      <c r="H79" s="64"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E80" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="17">
-        <v>25</v>
-      </c>
-      <c r="G80" s="47"/>
-      <c r="H80" s="48"/>
+      <c r="F80" s="28">
+        <v>22</v>
+      </c>
+      <c r="G80" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="H80" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G76:H80"/>
+    <mergeCell ref="G48:H61"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G67:H75"/>
     <mergeCell ref="A7:B66"/>
-    <mergeCell ref="G7:H15"/>
-    <mergeCell ref="G61:H66"/>
-    <mergeCell ref="G16:H36"/>
-    <mergeCell ref="G50:H60"/>
+    <mergeCell ref="G13:H33"/>
+    <mergeCell ref="G62:H66"/>
+    <mergeCell ref="G7:H12"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G67:H79"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2217,7 +2257,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F7" sqref="F7:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,29 +2272,29 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -2268,30 +2308,30 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="40">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="63"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -2304,12 +2344,12 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -2322,12 +2362,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -2340,12 +2380,12 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -2358,12 +2398,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -2376,12 +2416,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -2394,12 +2434,12 @@
       <c r="F13" s="25">
         <v>7</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -2412,8 +2452,8 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2455,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
@@ -2465,16 +2505,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -2488,30 +2528,30 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="40">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="63"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -2524,12 +2564,12 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -2542,12 +2582,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -2560,12 +2600,12 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -2578,12 +2618,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -2596,12 +2636,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -2614,12 +2654,12 @@
       <c r="F13" s="25">
         <v>7</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -2632,8 +2672,8 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2675,26 +2715,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -2708,30 +2748,30 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="40">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="63"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -2744,12 +2784,12 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -2762,12 +2802,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -2780,12 +2820,12 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -2798,12 +2838,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -2816,12 +2856,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="66"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -2834,12 +2874,12 @@
       <c r="F13" s="25">
         <v>7</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -2852,8 +2892,8 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2873,7 +2913,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A8B13B-1F27-4C95-A71A-9807B50D3A65}">
-  <dimension ref="A1:J30"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -2881,7 +2924,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="9.140625" style="13"/>
+    <col min="1" max="1" width="9.140625" style="13"/>
+    <col min="2" max="2" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.140625" style="13"/>
     <col min="10" max="10" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="13"/>
   </cols>
@@ -2902,23 +2947,20 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="J3" s="30" t="s">
-        <v>71</v>
-      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -2932,10 +2974,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -2948,20 +2990,20 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
       <c r="D8" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>4</v>
@@ -2969,18 +3011,19 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="15"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>4</v>
@@ -2988,18 +3031,18 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
       <c r="D10" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>4</v>
@@ -3007,20 +3050,20 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="46"/>
+      <c r="G10" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="55"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
       <c r="D11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>4</v>
@@ -3028,17 +3071,17 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
       <c r="D12" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>4</v>
@@ -3046,104 +3089,82 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
-      <c r="D13" s="18">
-        <v>7</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="46"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
-      <c r="D14" s="18">
-        <v>8</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="20">
-        <v>2</v>
-      </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="47"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
-      <c r="D15" s="18">
-        <v>9</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="21">
-        <v>3</v>
-      </c>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
-      <c r="D16" s="39">
-        <v>10</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="22">
-        <v>4</v>
-      </c>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="47"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
-      <c r="D17" s="39">
-        <v>11</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="23">
-        <v>5</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="47"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -3154,20 +3175,20 @@
       <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="70"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -3178,8 +3199,8 @@
       <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -3190,8 +3211,8 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -3202,8 +3223,8 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -3214,8 +3235,8 @@
       <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -3226,71 +3247,63 @@
       <c r="H24" s="44"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
-      <c r="D25" s="18">
-        <v>12</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="22">
-        <v>4</v>
-      </c>
-      <c r="G25" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="57"/>
+      <c r="E25" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="44"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
       <c r="D26" s="39">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="13">
-        <v>6</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="46"/>
+      <c r="F26" s="23">
+        <v>5</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="55"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
-      <c r="D27" s="39">
-        <v>14</v>
+      <c r="D27" s="45">
+        <v>4</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="25">
-        <v>7</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="F27" s="13">
+        <v>6</v>
+      </c>
+      <c r="G27" s="59"/>
+      <c r="H27" s="60"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
-      <c r="D28" s="39">
-        <v>15</v>
+      <c r="D28" s="49">
+        <v>5</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>4</v>
@@ -3298,19 +3311,19 @@
       <c r="F28" s="22">
         <v>4</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="48"/>
+      <c r="H28" s="57"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
-      <c r="D29" s="39">
-        <v>16</v>
+      <c r="D29" s="49">
+        <v>5</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>4</v>
@@ -3318,17 +3331,17 @@
       <c r="F29" s="23">
         <v>5</v>
       </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
-      <c r="D30" s="39">
-        <v>17</v>
+      <c r="D30" s="49">
+        <v>6</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>4</v>
@@ -3336,27 +3349,37 @@
       <c r="F30" s="13">
         <v>6</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="22">
+        <v>4</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G10:H12"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="G7:H9"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A7:B30"/>
     <mergeCell ref="G28:H30"/>
-    <mergeCell ref="G10:H12"/>
     <mergeCell ref="G26:H27"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G13:H17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{778B2DBF-2B96-4C07-839F-70684CDADA16}"/>
     <hyperlink ref="I1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{69367D17-94AF-411F-AB71-2D8D10953FB3}"/>
-    <hyperlink ref="J2" location="'BPE-21-011-077-0002'!A1" display="BPE-21-011-077-0002" xr:uid="{9E3A81D7-60ED-4B81-A7D4-26FA341512D6}"/>
     <hyperlink ref="B1" location="'BPE-21-011-079-0012'!A1" display="BPE-21-011-079-0012" xr:uid="{74412989-06BA-426D-B3A6-FE839414BE3B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3368,7 +3391,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,26 +3414,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -3424,10 +3447,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -3440,15 +3463,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="46"/>
+      <c r="G7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="55"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -3461,13 +3484,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -3480,13 +3503,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -3499,8 +3522,8 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="15"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3565,7 +3588,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3607,10 +3630,10 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -3621,10 +3644,10 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="53"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -3665,10 +3688,10 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="46"/>
+      <c r="A7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="55"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -3681,16 +3704,16 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="46"/>
+      <c r="G7" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="55"/>
       <c r="I7" s="15"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -3703,14 +3726,14 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="15"/>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -3723,14 +3746,14 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="15"/>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -3743,8 +3766,8 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="15"/>
       <c r="J10" s="13"/>
     </row>
@@ -3766,10 +3789,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE224C92-1E60-45F4-B88F-87478E25744F}">
-  <dimension ref="A1:J34"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,19 +3823,19 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
       <c r="J3" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -3823,10 +3849,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -3839,15 +3865,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -3860,13 +3886,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -3879,13 +3905,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -3898,15 +3924,15 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="54"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -3919,12 +3945,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -3937,12 +3963,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -3955,14 +3981,14 @@
       <c r="F13" s="17">
         <v>1</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="54"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -3975,12 +4001,12 @@
       <c r="F14" s="20">
         <v>2</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -3993,12 +4019,12 @@
       <c r="F15" s="21">
         <v>3</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -4011,8 +4037,8 @@
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -4025,8 +4051,8 @@
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -4039,8 +4065,8 @@
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -4053,8 +4079,8 @@
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -4067,8 +4093,8 @@
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -4081,8 +4107,8 @@
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -4095,8 +4121,8 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -4109,8 +4135,8 @@
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -4123,8 +4149,8 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
@@ -4137,8 +4163,8 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -4151,8 +4177,8 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
@@ -4162,8 +4188,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
@@ -4176,14 +4202,14 @@
       <c r="F28" s="22">
         <v>4</v>
       </c>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="54"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
@@ -4196,14 +4222,14 @@
       <c r="F29" s="22">
         <v>4</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="54"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
@@ -4213,48 +4239,25 @@
       <c r="E30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="13">
-        <v>6</v>
-      </c>
-      <c r="G30" s="54" t="s">
+      <c r="F30" s="22">
+        <v>4</v>
+      </c>
+      <c r="G30" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="H30" s="54"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="22">
-        <v>4</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="54"/>
+      <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="23">
-        <v>5</v>
-      </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="13"/>
+      <c r="F32" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B30"/>
-    <mergeCell ref="G31:H32"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G7:H9"/>
@@ -4278,7 +4281,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4301,16 +4304,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -4324,10 +4327,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -4340,15 +4343,15 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -4361,13 +4364,13 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
@@ -4380,13 +4383,13 @@
       <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="10">
         <v>4</v>
       </c>
@@ -4399,8 +4402,8 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4522,16 +4525,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -4545,10 +4548,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -4561,15 +4564,15 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -4582,13 +4585,13 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
@@ -4601,13 +4604,13 @@
       <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="10">
         <v>4</v>
       </c>
@@ -4620,8 +4623,8 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4744,16 +4747,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
@@ -4767,10 +4770,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -4783,15 +4786,15 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -4804,13 +4807,13 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
@@ -4823,13 +4826,13 @@
       <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="10">
         <v>4</v>
       </c>
@@ -4842,8 +4845,8 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4940,10 +4943,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF060BA-0AEA-482B-AAB1-773FCDBBA711}">
-  <dimension ref="A1:J62"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4964,28 +4970,28 @@
         <v>1</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="51"/>
       <c r="J3" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -4999,31 +5005,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -5036,13 +5042,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -5055,12 +5061,12 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -5073,14 +5079,14 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="54"/>
+      <c r="G10" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -5093,12 +5099,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -5111,12 +5117,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -5129,12 +5135,12 @@
       <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -5147,12 +5153,12 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -5165,12 +5171,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -5183,12 +5189,12 @@
       <c r="F16" s="25">
         <v>7</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -5201,12 +5207,12 @@
       <c r="F17" s="26">
         <v>8</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -5219,12 +5225,12 @@
       <c r="F18" s="27">
         <v>9</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -5237,14 +5243,14 @@
       <c r="F19" s="17">
         <v>1</v>
       </c>
-      <c r="G19" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="54"/>
+      <c r="G19" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -5257,12 +5263,12 @@
       <c r="F20" s="20">
         <v>2</v>
       </c>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -5275,12 +5281,12 @@
       <c r="F21" s="21">
         <v>3</v>
       </c>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -5293,12 +5299,12 @@
       <c r="F22" s="22">
         <v>4</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -5311,12 +5317,12 @@
       <c r="F23" s="23">
         <v>5</v>
       </c>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -5329,12 +5335,12 @@
       <c r="F24" s="13">
         <v>6</v>
       </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
@@ -5347,12 +5353,12 @@
       <c r="F25" s="25">
         <v>7</v>
       </c>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
@@ -5365,12 +5371,12 @@
       <c r="F26" s="26">
         <v>8</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
@@ -5383,12 +5389,12 @@
       <c r="F27" s="27">
         <v>9</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
@@ -5396,169 +5402,181 @@
       <c r="E28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="D29" s="18">
+        <v>22</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="25">
+        <v>19</v>
+      </c>
+      <c r="G29" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="D30" s="48">
+        <v>23</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="26">
+        <v>20</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
       <c r="C31" s="17">
         <v>25</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="D31" s="48">
+        <v>24</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="27">
+        <v>21</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
       <c r="C32" s="20">
         <v>26</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="48">
+        <v>25</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="28">
         <v>22</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="25">
-        <v>19</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="H32" s="54"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="21">
         <v>27</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="48">
+        <v>26</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="20">
         <v>23</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="26">
-        <v>20</v>
-      </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="22">
         <v>28</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="48">
+        <v>27</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="29">
         <v>24</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="27">
-        <v>21</v>
-      </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="23">
         <v>29</v>
       </c>
-      <c r="D35" s="35">
-        <v>25</v>
+      <c r="D35" s="48">
+        <v>28</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="28">
-        <v>22</v>
-      </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
+      <c r="F35" s="13">
+        <v>18</v>
+      </c>
+      <c r="G35" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="50"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="13">
         <v>30</v>
       </c>
-      <c r="D36" s="35">
-        <v>26</v>
+      <c r="D36" s="48">
+        <v>29</v>
       </c>
       <c r="E36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="20">
-        <v>23</v>
-      </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
+      <c r="F36" s="25">
+        <v>19</v>
+      </c>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="48"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="25">
         <v>31</v>
       </c>
-      <c r="D37" s="35">
-        <v>27</v>
+      <c r="D37" s="48">
+        <v>30</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="29">
-        <v>24</v>
-      </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
+      <c r="F37" s="26">
+        <v>20</v>
+      </c>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
-      <c r="B38" s="48"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="26">
         <v>32</v>
       </c>
-      <c r="D38" s="35">
-        <v>28</v>
+      <c r="D38" s="48">
+        <v>31</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>4</v>
@@ -5566,19 +5584,17 @@
       <c r="F38" s="27">
         <v>21</v>
       </c>
-      <c r="G38" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="H38" s="54"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="27">
         <v>33</v>
       </c>
-      <c r="D39" s="35">
-        <v>29</v>
+      <c r="D39" s="48">
+        <v>32</v>
       </c>
       <c r="E39" s="19" t="s">
         <v>4</v>
@@ -5586,17 +5602,17 @@
       <c r="F39" s="28">
         <v>22</v>
       </c>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="28">
         <v>34</v>
       </c>
-      <c r="D40" s="35">
-        <v>30</v>
+      <c r="D40" s="48">
+        <v>33</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>4</v>
@@ -5604,17 +5620,17 @@
       <c r="F40" s="20">
         <v>23</v>
       </c>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="20">
         <v>35</v>
       </c>
-      <c r="D41" s="35">
-        <v>31</v>
+      <c r="D41" s="48">
+        <v>34</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>4</v>
@@ -5622,17 +5638,17 @@
       <c r="F41" s="29">
         <v>24</v>
       </c>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
+      <c r="G41" s="50"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="53"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="29">
         <v>36</v>
       </c>
-      <c r="D42" s="35">
-        <v>32</v>
+      <c r="D42" s="48">
+        <v>35</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>4</v>
@@ -5640,10 +5656,10 @@
       <c r="F42" s="22">
         <v>4</v>
       </c>
-      <c r="G42" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H42" s="55"/>
+      <c r="G42" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="61"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
@@ -5654,10 +5670,10 @@
       <c r="F43" s="28">
         <v>10</v>
       </c>
-      <c r="G43" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="46"/>
+      <c r="G43" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="55"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
@@ -5668,8 +5684,8 @@
       <c r="F44" s="20">
         <v>11</v>
       </c>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="57"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
@@ -5680,8 +5696,8 @@
       <c r="F45" s="29">
         <v>12</v>
       </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="48"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="57"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -5692,8 +5708,8 @@
       <c r="F46" s="17">
         <v>13</v>
       </c>
-      <c r="G46" s="47"/>
-      <c r="H46" s="48"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="57"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
@@ -5704,8 +5720,8 @@
       <c r="F47" s="20">
         <v>14</v>
       </c>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="57"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
@@ -5716,8 +5732,8 @@
       <c r="F48" s="21">
         <v>15</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="57"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -5728,8 +5744,8 @@
       <c r="F49" s="22">
         <v>16</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="57"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -5740,8 +5756,8 @@
       <c r="F50" s="23">
         <v>17</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="34"/>
@@ -5749,143 +5765,107 @@
       <c r="E51" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="13">
-        <v>18</v>
-      </c>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
+      <c r="F51" s="28">
+        <v>10</v>
+      </c>
+      <c r="G51" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="50"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
       <c r="E52" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="25">
-        <v>19</v>
-      </c>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
+      <c r="F52" s="20">
+        <v>11</v>
+      </c>
+      <c r="G52" s="50"/>
+      <c r="H52" s="50"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
       <c r="E53" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="26">
-        <v>20</v>
-      </c>
-      <c r="G53" s="52"/>
-      <c r="H53" s="53"/>
+      <c r="F53" s="29">
+        <v>12</v>
+      </c>
+      <c r="G53" s="50"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
       <c r="E54" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="28">
-        <v>10</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="H54" s="54"/>
+      <c r="F54" s="17">
+        <v>13</v>
+      </c>
+      <c r="G54" s="50"/>
+      <c r="H54" s="50"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E55" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="20">
-        <v>11</v>
-      </c>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
+        <v>14</v>
+      </c>
+      <c r="G55" s="50"/>
+      <c r="H55" s="50"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E56" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="29">
-        <v>12</v>
-      </c>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
+      <c r="F56" s="21">
+        <v>15</v>
+      </c>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E57" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="17">
-        <v>13</v>
-      </c>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
+      <c r="F57" s="22">
+        <v>16</v>
+      </c>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E58" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="20">
-        <v>14</v>
-      </c>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
+      <c r="F58" s="23">
+        <v>17</v>
+      </c>
+      <c r="G58" s="50"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E59" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="21">
-        <v>15</v>
-      </c>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E60" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="22">
-        <v>16</v>
-      </c>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E61" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="23">
-        <v>17</v>
-      </c>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E62" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="13">
+      <c r="F59" s="13">
         <v>18</v>
       </c>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
+      <c r="G59" s="50"/>
+      <c r="H59" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G51:H59"/>
+    <mergeCell ref="G7:H9"/>
+    <mergeCell ref="G10:H18"/>
+    <mergeCell ref="G29:H34"/>
+    <mergeCell ref="G35:H41"/>
+    <mergeCell ref="G43:H50"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A7:B42"/>
     <mergeCell ref="G19:H27"/>
-    <mergeCell ref="G32:H37"/>
-    <mergeCell ref="G43:H53"/>
-    <mergeCell ref="G38:H41"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G54:H62"/>
-    <mergeCell ref="G7:H9"/>
-    <mergeCell ref="G10:H18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -5904,7 +5884,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5930,10 +5910,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -5944,10 +5924,10 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5976,10 +5956,10 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -5992,16 +5972,16 @@
       <c r="F7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="8">
         <v>2</v>
       </c>
@@ -6014,14 +5994,14 @@
       <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="9">
         <v>3</v>
       </c>
@@ -6034,14 +6014,14 @@
       <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="10">
         <v>4</v>
       </c>
@@ -6054,8 +6034,8 @@
       <c r="F10" s="10">
         <v>4</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
     </row>
@@ -6207,8 +6187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D9544A-8657-4E3C-9978-62FCA0725772}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6223,26 +6203,26 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -6256,10 +6236,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="54"/>
+      <c r="A7" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="50"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -6272,20 +6252,20 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="54"/>
+      <c r="G7" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="50"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
       <c r="D8" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>4</v>
@@ -6293,18 +6273,18 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>4</v>
@@ -6312,17 +6292,17 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
       <c r="D10" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>4</v>
@@ -6330,17 +6310,17 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
       <c r="D11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>4</v>
@@ -6348,17 +6328,17 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
       <c r="D12" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>4</v>
@@ -6366,17 +6346,17 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
       <c r="D13" s="18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>4</v>
@@ -6384,17 +6364,17 @@
       <c r="F13" s="25">
         <v>7</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
       <c r="D14" s="18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>4</v>
@@ -6402,17 +6382,17 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
       <c r="D15" s="35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>4</v>
@@ -6420,12 +6400,12 @@
       <c r="F15" s="27">
         <v>9</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -6435,8 +6415,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -6446,8 +6426,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -6457,8 +6437,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -6467,8 +6447,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -6477,8 +6457,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -6487,8 +6467,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -6497,8 +6477,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -6507,8 +6487,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -6517,13 +6497,13 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
       <c r="D25" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>4</v>
@@ -6531,19 +6511,19 @@
       <c r="F25" s="25">
         <v>19</v>
       </c>
-      <c r="G25" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="54"/>
+      <c r="G25" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
       <c r="D26" s="35">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>4</v>
@@ -6551,17 +6531,17 @@
       <c r="F26" s="26">
         <v>20</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
       <c r="D27" s="35">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>4</v>
@@ -6569,17 +6549,17 @@
       <c r="F27" s="27">
         <v>21</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
       <c r="D28" s="35">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>4</v>
@@ -6587,17 +6567,17 @@
       <c r="F28" s="28">
         <v>22</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
       <c r="D29" s="35">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>4</v>
@@ -6605,17 +6585,17 @@
       <c r="F29" s="20">
         <v>23</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
       <c r="D30" s="35">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>4</v>
@@ -6623,8 +6603,8 @@
       <c r="F30" s="29">
         <v>24</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="31" t="s">
@@ -6633,8 +6613,8 @@
       <c r="F31" s="28">
         <v>10</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32" s="31" t="s">
@@ -6643,8 +6623,8 @@
       <c r="F32" s="20">
         <v>11</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="31" t="s">
@@ -6653,8 +6633,8 @@
       <c r="F33" s="29">
         <v>12</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="31" t="s">
@@ -6663,8 +6643,8 @@
       <c r="F34" s="17">
         <v>13</v>
       </c>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="31" t="s">
@@ -6673,8 +6653,8 @@
       <c r="F35" s="20">
         <v>14</v>
       </c>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="31" t="s">
@@ -6683,8 +6663,8 @@
       <c r="F36" s="21">
         <v>15</v>
       </c>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="31" t="s">
@@ -6693,8 +6673,8 @@
       <c r="F37" s="22">
         <v>16</v>
       </c>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="31" t="s">
@@ -6703,8 +6683,8 @@
       <c r="F38" s="23">
         <v>17</v>
       </c>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="31" t="s">
@@ -6713,8 +6693,8 @@
       <c r="F39" s="13">
         <v>18</v>
       </c>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6736,10 +6716,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD1EF4D-3882-4460-A741-9F5606C6326A}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D30"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6754,31 +6737,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -6792,36 +6775,36 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
       <c r="D8" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>4</v>
@@ -6829,18 +6812,18 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
       <c r="D9" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>4</v>
@@ -6848,17 +6831,17 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
       <c r="D10" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>4</v>
@@ -6866,19 +6849,19 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="54"/>
+      <c r="G10" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="50"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
       <c r="D11" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>4</v>
@@ -6886,17 +6869,17 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
       <c r="D12" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>4</v>
@@ -6904,17 +6887,17 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
       <c r="D13" s="18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>4</v>
@@ -6922,17 +6905,17 @@
       <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
       <c r="D14" s="18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>4</v>
@@ -6940,17 +6923,17 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
       <c r="D15" s="35">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>4</v>
@@ -6958,12 +6941,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -6973,8 +6956,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -6984,8 +6967,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -6995,8 +6978,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
@@ -7007,8 +6990,8 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -7019,8 +7002,8 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -7029,8 +7012,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -7039,8 +7022,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -7049,8 +7032,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
@@ -7059,13 +7042,13 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
       <c r="D25" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>4</v>
@@ -7073,19 +7056,19 @@
       <c r="F25" s="26">
         <v>8</v>
       </c>
-      <c r="G25" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="54"/>
+      <c r="G25" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="50"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
       <c r="D26" s="36">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>4</v>
@@ -7093,17 +7076,17 @@
       <c r="F26" s="27">
         <v>9</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
       <c r="D27" s="36">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>4</v>
@@ -7111,17 +7094,17 @@
       <c r="F27" s="28">
         <v>10</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
       <c r="D28" s="36">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>4</v>
@@ -7129,17 +7112,17 @@
       <c r="F28" s="20">
         <v>11</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
       <c r="D29" s="36">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>4</v>
@@ -7147,28 +7130,28 @@
       <c r="F29" s="29">
         <v>12</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
       <c r="D30" s="36">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="22">
-        <v>4</v>
-      </c>
-      <c r="G30" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="55"/>
+      <c r="F30" s="13">
+        <v>6</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E31" s="31" t="s">
@@ -7177,21 +7160,36 @@
       <c r="F31" s="25">
         <v>7</v>
       </c>
-      <c r="G31" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="57"/>
+      <c r="G31" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-    </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="E32" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="22">
+        <v>4</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="55"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="23">
+        <v>5</v>
+      </c>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="G32:H33"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G25:H29"/>
     <mergeCell ref="A3:B3"/>
@@ -7215,8 +7213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B28965-4B19-4F51-988D-B1CAF35F891A}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7231,29 +7229,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -7267,10 +7265,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="46"/>
+      <c r="A7" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="55"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -7283,15 +7281,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="54"/>
+      <c r="G7" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="50"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -7304,13 +7302,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -7323,13 +7321,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -7342,13 +7340,13 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -7361,12 +7359,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -7379,12 +7377,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -7396,8 +7394,8 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -7410,14 +7408,14 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="54"/>
+      <c r="G14" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -7430,12 +7428,12 @@
       <c r="F15" s="27">
         <v>9</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -7448,12 +7446,12 @@
       <c r="F16" s="28">
         <v>10</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -7466,12 +7464,12 @@
       <c r="F17" s="20">
         <v>11</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -7484,8 +7482,8 @@
       <c r="F18" s="29">
         <v>12</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7495,8 +7493,8 @@
       <c r="F19" s="25">
         <v>7</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
@@ -7541,29 +7539,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -7577,10 +7575,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="46"/>
+      <c r="A7" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="55"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -7593,15 +7591,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="54"/>
+      <c r="G7" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="50"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -7614,13 +7612,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -7633,13 +7631,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -7652,13 +7650,13 @@
       <c r="F10" s="22">
         <v>4</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -7671,12 +7669,12 @@
       <c r="F11" s="23">
         <v>5</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -7689,12 +7687,12 @@
       <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -7706,8 +7704,8 @@
       <c r="H13" s="34"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -7720,14 +7718,14 @@
       <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="54"/>
+      <c r="G14" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -7740,12 +7738,12 @@
       <c r="F15" s="27">
         <v>9</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -7758,12 +7756,12 @@
       <c r="F16" s="28">
         <v>10</v>
       </c>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -7776,12 +7774,12 @@
       <c r="F17" s="20">
         <v>11</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -7794,8 +7792,8 @@
       <c r="F18" s="29">
         <v>12</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7805,8 +7803,8 @@
       <c r="F19" s="25">
         <v>7</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
@@ -7852,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
@@ -7867,16 +7865,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -7890,90 +7888,90 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="54" t="s">
+      <c r="H7" s="50"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="20">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="20">
+        <v>2</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="18">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="21">
+        <v>3</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="22">
+        <v>4</v>
+      </c>
+      <c r="D10" s="18">
+        <v>4</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="20">
-        <v>2</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="20">
-        <v>2</v>
-      </c>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="21">
-        <v>3</v>
-      </c>
-      <c r="D9" s="18">
-        <v>3</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="21">
-        <v>3</v>
-      </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="22">
-        <v>4</v>
-      </c>
-      <c r="D10" s="18">
-        <v>4</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="54"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -7986,12 +7984,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -8004,12 +8002,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -8019,8 +8017,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -8033,14 +8031,14 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="54"/>
+      <c r="G14" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -8053,12 +8051,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -8071,14 +8069,14 @@
       <c r="F16" s="22">
         <v>4</v>
       </c>
-      <c r="G16" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="54"/>
+      <c r="G16" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -8091,12 +8089,12 @@
       <c r="F17" s="23">
         <v>5</v>
       </c>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -8109,8 +8107,8 @@
       <c r="F18" s="13">
         <v>6</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -8120,10 +8118,10 @@
       <c r="F19" s="22">
         <v>4</v>
       </c>
-      <c r="G19" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="55"/>
+      <c r="G19" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8148,7 +8146,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3478A6C-21E0-4EB4-B2D2-7B95D6F71F16}">
-  <dimension ref="A1:J33"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -8164,31 +8165,31 @@
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="A3" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="51"/>
+      <c r="A4" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -8202,10 +8203,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="46"/>
+      <c r="A7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="55"/>
       <c r="C7" s="17">
         <v>1</v>
       </c>
@@ -8218,15 +8219,15 @@
       <c r="F7" s="17">
         <v>1</v>
       </c>
-      <c r="G7" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="46"/>
+      <c r="G7" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="55"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -8239,13 +8240,13 @@
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -8258,13 +8259,13 @@
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -8277,15 +8278,15 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="46"/>
+      <c r="G10" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="55"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -8298,12 +8299,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -8316,12 +8317,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -8334,12 +8335,12 @@
       <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -8352,12 +8353,12 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -8370,12 +8371,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -8386,8 +8387,8 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -8398,8 +8399,8 @@
       <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -8410,20 +8411,20 @@
       <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="17">
         <v>13</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="C20" s="20">
         <v>14</v>
       </c>
@@ -8432,8 +8433,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="21">
         <v>15</v>
       </c>
@@ -8442,8 +8443,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="22">
         <v>16</v>
       </c>
@@ -8452,8 +8453,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="23">
         <v>17</v>
       </c>
@@ -8462,43 +8463,69 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
       <c r="C24" s="13">
         <v>18</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>10</v>
-      </c>
+      <c r="D24" s="48">
+        <v>10</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="25">
+        <v>7</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
       <c r="C25" s="25">
         <v>19</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>10</v>
-      </c>
+      <c r="D25" s="48">
+        <v>11</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="26">
+        <v>8</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="C26" s="26">
         <v>20</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>10</v>
-      </c>
+      <c r="D26" s="48">
+        <v>12</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="27">
+        <v>9</v>
+      </c>
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="27">
         <v>21</v>
       </c>
-      <c r="D27" s="18">
-        <v>10</v>
+      <c r="D27" s="48">
+        <v>13</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>4</v>
@@ -8506,19 +8533,17 @@
       <c r="F27" s="28">
         <v>10</v>
       </c>
-      <c r="G27" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="54"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
       <c r="C28" s="28">
         <v>22</v>
       </c>
-      <c r="D28" s="18">
-        <v>11</v>
+      <c r="D28" s="48">
+        <v>14</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>4</v>
@@ -8526,17 +8551,17 @@
       <c r="F28" s="20">
         <v>11</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="57"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="20">
         <v>23</v>
       </c>
-      <c r="D29" s="18">
-        <v>12</v>
+      <c r="D29" s="48">
+        <v>15</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>4</v>
@@ -8544,17 +8569,17 @@
       <c r="F29" s="29">
         <v>12</v>
       </c>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="60"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="29">
         <v>24</v>
       </c>
-      <c r="D30" s="18">
-        <v>13</v>
+      <c r="D30" s="48">
+        <v>16</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>4</v>
@@ -8563,52 +8588,19 @@
         <v>4</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="25">
-        <v>7</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="54"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="26">
-        <v>8</v>
-      </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="27">
-        <v>9</v>
-      </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G31:H33"/>
+  <mergeCells count="7">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="G7:H9"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A7:B30"/>
     <mergeCell ref="G10:H15"/>
-    <mergeCell ref="G27:H29"/>
+    <mergeCell ref="G24:H29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I1" location="'BPE 31-197-201-0017'!A1" display="RETOUR" xr:uid="{768B3BE7-ED02-4A83-996A-D2F1A8A1BF2E}"/>
@@ -8623,7 +8615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E6135A-2194-4F10-83EB-E84B25FA2DB4}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8639,31 +8633,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J2" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="49"/>
+      <c r="B3" s="51"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -8677,31 +8671,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="17">
+        <v>1</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="17">
-        <v>1</v>
-      </c>
-      <c r="D7" s="40">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="50"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="20">
         <v>2</v>
       </c>
@@ -8709,18 +8703,18 @@
         <v>2</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="20">
         <v>2</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="21">
         <v>3</v>
       </c>
@@ -8728,18 +8722,18 @@
         <v>3</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="21">
         <v>3</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="22">
         <v>4</v>
       </c>
@@ -8752,15 +8746,15 @@
       <c r="F10" s="17">
         <v>1</v>
       </c>
-      <c r="G10" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="63"/>
+      <c r="G10" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="50"/>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23">
         <v>5</v>
       </c>
@@ -8773,12 +8767,12 @@
       <c r="F11" s="20">
         <v>2</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -8791,12 +8785,12 @@
       <c r="F12" s="21">
         <v>3</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="25">
         <v>7</v>
       </c>
@@ -8809,12 +8803,12 @@
       <c r="F13" s="22">
         <v>4</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="26">
         <v>8</v>
       </c>
@@ -8827,12 +8821,12 @@
       <c r="F14" s="23">
         <v>5</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="27">
         <v>9</v>
       </c>
@@ -8845,12 +8839,12 @@
       <c r="F15" s="13">
         <v>6</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="28">
         <v>10</v>
       </c>
@@ -8863,12 +8857,12 @@
       <c r="F16" s="25">
         <v>7</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="20">
         <v>11</v>
       </c>
@@ -8881,12 +8875,12 @@
       <c r="F17" s="26">
         <v>8</v>
       </c>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="29">
         <v>12</v>
       </c>
@@ -8899,10 +8893,10 @@
       <c r="F18" s="22">
         <v>4</v>
       </c>
-      <c r="G18" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="62"/>
+      <c r="G18" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="71"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
